--- a/ui-testsuite/src/main/resources/TestData/ATR_Imported_Renewal_CheckRequiredFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Imported_Renewal_CheckRequiredFields.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="227">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -1133,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF34"/>
+  <dimension ref="A1:FF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
-      <selection activeCell="DE34" sqref="DE34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,6 +1162,9 @@
     <col min="70" max="70" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="108" max="109" width="11.85546875" customWidth="1"/>
@@ -1170,6 +1173,7 @@
     <col min="116" max="116" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="13.42578125" customWidth="1"/>
     <col min="119" max="119" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="12" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="20" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -2839,7 +2843,7 @@
         <v>164</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" ref="F5:F34" si="0">F4+1</f>
+        <f t="shared" ref="F5:F33" si="0">F4+1</f>
         <v>2042477032</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -12597,9 +12601,7 @@
       <c r="BL30" s="14"/>
       <c r="BM30" s="14"/>
       <c r="BN30" s="14"/>
-      <c r="BO30" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="BO30" s="14"/>
       <c r="BP30" s="14"/>
       <c r="BQ30" s="14" t="s">
         <v>192</v>
@@ -12705,7 +12707,9 @@
       </c>
       <c r="DA30" s="15"/>
       <c r="DB30" s="15"/>
-      <c r="DC30" s="15"/>
+      <c r="DC30" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="DD30" s="16">
         <v>40634</v>
       </c>
@@ -12929,9 +12933,7 @@
       <c r="AM31" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="AN31" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="AN31" s="14"/>
       <c r="AO31" s="14"/>
       <c r="AP31" s="14"/>
       <c r="AQ31" s="14"/>
@@ -12982,7 +12984,9 @@
       <c r="BL31" s="14"/>
       <c r="BM31" s="14"/>
       <c r="BN31" s="14"/>
-      <c r="BO31" s="14"/>
+      <c r="BO31" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="BP31" s="14"/>
       <c r="BQ31" s="14" t="s">
         <v>192</v>
@@ -13365,9 +13369,7 @@
       <c r="BL32" s="14"/>
       <c r="BM32" s="14"/>
       <c r="BN32" s="14"/>
-      <c r="BO32" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="BO32" s="14"/>
       <c r="BP32" s="14"/>
       <c r="BQ32" s="14" t="s">
         <v>192</v>
@@ -13699,7 +13701,9 @@
       <c r="AM33" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="AN33" s="14"/>
+      <c r="AN33" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="AO33" s="14"/>
       <c r="AP33" s="14"/>
       <c r="AQ33" s="14"/>
@@ -13750,7 +13754,9 @@
       <c r="BL33" s="14"/>
       <c r="BM33" s="14"/>
       <c r="BN33" s="14"/>
-      <c r="BO33" s="14"/>
+      <c r="BO33" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="BP33" s="14"/>
       <c r="BQ33" s="14" t="s">
         <v>192</v>
@@ -13859,12 +13865,8 @@
       <c r="DC33" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="DD33" s="16">
-        <v>40634</v>
-      </c>
-      <c r="DE33" s="16">
-        <v>42916</v>
-      </c>
+      <c r="DD33" s="16"/>
+      <c r="DE33" s="16"/>
       <c r="DF33" s="15" t="s">
         <v>219</v>
       </c>
@@ -13985,389 +13987,6 @@
       </c>
       <c r="FF33" s="14"/>
     </row>
-    <row r="34" spans="1:162" s="13" customFormat="1">
-      <c r="A34" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="15">
-        <f t="shared" si="0"/>
-        <v>2042477061</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="R34" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="S34" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="16">
-        <v>40269</v>
-      </c>
-      <c r="AB34" s="16">
-        <v>40633</v>
-      </c>
-      <c r="AC34" s="15">
-        <v>12</v>
-      </c>
-      <c r="AD34" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE34" s="16">
-        <v>36494</v>
-      </c>
-      <c r="AF34" s="16">
-        <v>40634</v>
-      </c>
-      <c r="AG34" s="15">
-        <v>102453496808</v>
-      </c>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM34" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN34" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX34" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY34" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ34" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA34" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB34" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="BC34" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="BD34" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="BG34" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="14"/>
-      <c r="BO34" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="BP34" s="14"/>
-      <c r="BQ34" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="BR34" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="BS34" s="16"/>
-      <c r="BT34" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU34" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="BV34" s="14">
-        <v>10</v>
-      </c>
-      <c r="BW34" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="BX34" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="BY34" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="BZ34" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="CA34" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="CB34" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC34" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD34" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="CE34" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="CF34" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="CG34" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="CH34" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="CI34" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ34" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="CK34" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL34" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="CM34" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN34" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="CO34" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="CP34" s="17">
-        <v>1</v>
-      </c>
-      <c r="CQ34" s="18">
-        <v>2</v>
-      </c>
-      <c r="CR34" s="18">
-        <v>2</v>
-      </c>
-      <c r="CS34" s="14">
-        <v>0</v>
-      </c>
-      <c r="CT34" s="14">
-        <v>0</v>
-      </c>
-      <c r="CU34" s="18">
-        <v>2</v>
-      </c>
-      <c r="CV34" s="18">
-        <v>2</v>
-      </c>
-      <c r="CW34" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="CX34" s="14"/>
-      <c r="CY34" s="14"/>
-      <c r="CZ34" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="DA34" s="15"/>
-      <c r="DB34" s="15"/>
-      <c r="DC34" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="DD34" s="16"/>
-      <c r="DE34" s="16"/>
-      <c r="DF34" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="DG34" s="18">
-        <v>2</v>
-      </c>
-      <c r="DH34" s="18">
-        <v>0</v>
-      </c>
-      <c r="DI34" s="15"/>
-      <c r="DJ34" s="15"/>
-      <c r="DK34" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="DL34" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="DM34" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="DN34" s="16">
-        <v>42612</v>
-      </c>
-      <c r="DO34" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="DP34" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="DQ34" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="DR34" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="DS34" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="DT34" s="14"/>
-      <c r="DU34" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="DV34" s="14"/>
-      <c r="DW34" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="DX34" s="14"/>
-      <c r="DY34" s="14"/>
-      <c r="DZ34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EA34" s="14">
-        <v>1178.6679999999999</v>
-      </c>
-      <c r="EB34" s="14">
-        <v>1178.6679999999999</v>
-      </c>
-      <c r="EC34" s="14">
-        <v>1178.6681339685206</v>
-      </c>
-      <c r="ED34" s="14">
-        <v>1628</v>
-      </c>
-      <c r="EE34" s="14">
-        <v>1178.6679999999999</v>
-      </c>
-      <c r="EF34" s="14">
-        <v>1.3812199999999999</v>
-      </c>
-      <c r="EG34" s="14"/>
-      <c r="EH34" s="19">
-        <v>42674</v>
-      </c>
-      <c r="EI34" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="EJ34" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="EK34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EL34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EM34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EN34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EO34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP34" s="14"/>
-      <c r="EQ34" s="14"/>
-      <c r="ER34" s="14"/>
-      <c r="ES34" s="14"/>
-      <c r="ET34" s="14"/>
-      <c r="EU34" s="14"/>
-      <c r="EV34" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="EW34" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="EX34" s="14"/>
-      <c r="EY34" s="14"/>
-      <c r="EZ34" s="14"/>
-      <c r="FA34" s="14"/>
-      <c r="FB34" s="14"/>
-      <c r="FC34" s="14"/>
-      <c r="FD34" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="FE34" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="FF34" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ui-testsuite/src/main/resources/TestData/ATR_Imported_Renewal_CheckRequiredFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Imported_Renewal_CheckRequiredFields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="228">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t>EOT</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1136,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF33"/>
+  <dimension ref="A1:FF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F33"/>
+    <sheetView tabSelected="1" topLeftCell="DO1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="DD1" sqref="DD1"/>
+      <selection pane="bottomLeft" activeCell="DX35" sqref="DX35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,9 +1161,11 @@
     <col min="32" max="32" width="12.42578125" customWidth="1"/>
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1169,10 +1176,13 @@
     <col min="107" max="107" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="108" max="109" width="11.85546875" customWidth="1"/>
     <col min="110" max="110" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="13.42578125" customWidth="1"/>
     <col min="119" max="119" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="12" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="20" bestFit="1" customWidth="1"/>
@@ -2843,7 +2853,7 @@
         <v>164</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" ref="F5:F33" si="0">F4+1</f>
+        <f t="shared" ref="F5:F35" si="0">F4+1</f>
         <v>2042477032</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -12601,7 +12611,9 @@
       <c r="BL30" s="14"/>
       <c r="BM30" s="14"/>
       <c r="BN30" s="14"/>
-      <c r="BO30" s="14"/>
+      <c r="BO30" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="BP30" s="14"/>
       <c r="BQ30" s="14" t="s">
         <v>192</v>
@@ -12707,9 +12719,7 @@
       </c>
       <c r="DA30" s="15"/>
       <c r="DB30" s="15"/>
-      <c r="DC30" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="DC30" s="15"/>
       <c r="DD30" s="16">
         <v>40634</v>
       </c>
@@ -12763,7 +12773,9 @@
         <v>225</v>
       </c>
       <c r="DX30" s="14"/>
-      <c r="DY30" s="14"/>
+      <c r="DY30" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="DZ30" s="14">
         <v>0</v>
       </c>
@@ -12933,7 +12945,9 @@
       <c r="AM31" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="AN31" s="14"/>
+      <c r="AN31" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="AO31" s="14"/>
       <c r="AP31" s="14"/>
       <c r="AQ31" s="14"/>
@@ -12984,9 +12998,7 @@
       <c r="BL31" s="14"/>
       <c r="BM31" s="14"/>
       <c r="BN31" s="14"/>
-      <c r="BO31" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="BO31" s="14"/>
       <c r="BP31" s="14"/>
       <c r="BQ31" s="14" t="s">
         <v>192</v>
@@ -13369,7 +13381,9 @@
       <c r="BL32" s="14"/>
       <c r="BM32" s="14"/>
       <c r="BN32" s="14"/>
-      <c r="BO32" s="14"/>
+      <c r="BO32" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="BP32" s="14"/>
       <c r="BQ32" s="14" t="s">
         <v>192</v>
@@ -13754,9 +13768,7 @@
       <c r="BL33" s="14"/>
       <c r="BM33" s="14"/>
       <c r="BN33" s="14"/>
-      <c r="BO33" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="BO33" s="14"/>
       <c r="BP33" s="14"/>
       <c r="BQ33" s="14" t="s">
         <v>192</v>
@@ -13865,8 +13877,12 @@
       <c r="DC33" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="DD33" s="16"/>
-      <c r="DE33" s="16"/>
+      <c r="DD33" s="16">
+        <v>40634</v>
+      </c>
+      <c r="DE33" s="16">
+        <v>42916</v>
+      </c>
       <c r="DF33" s="15" t="s">
         <v>219</v>
       </c>
@@ -13987,6 +14003,778 @@
       </c>
       <c r="FF33" s="14"/>
     </row>
+    <row r="34" spans="1:162" s="13" customFormat="1">
+      <c r="A34" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="0"/>
+        <v>2042477061</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="16">
+        <v>40269</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>40633</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD34" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE34" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF34" s="16">
+        <v>40634</v>
+      </c>
+      <c r="AG34" s="15">
+        <v>102453496808</v>
+      </c>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM34" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN34" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX34" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY34" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ34" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB34" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD34" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE34" s="14"/>
+      <c r="BF34" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG34" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH34" s="14"/>
+      <c r="BI34" s="14"/>
+      <c r="BJ34" s="14"/>
+      <c r="BK34" s="14"/>
+      <c r="BL34" s="14"/>
+      <c r="BM34" s="14"/>
+      <c r="BN34" s="14"/>
+      <c r="BO34" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP34" s="14"/>
+      <c r="BQ34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS34" s="16"/>
+      <c r="BT34" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU34" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV34" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW34" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX34" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY34" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ34" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA34" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD34" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE34" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF34" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG34" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH34" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI34" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ34" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK34" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL34" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO34" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP34" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ34" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR34" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS34" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT34" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU34" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV34" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW34" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX34" s="14"/>
+      <c r="CY34" s="14"/>
+      <c r="CZ34" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA34" s="15"/>
+      <c r="DB34" s="15"/>
+      <c r="DC34" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD34" s="16"/>
+      <c r="DE34" s="16"/>
+      <c r="DF34" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG34" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH34" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI34" s="15"/>
+      <c r="DJ34" s="15"/>
+      <c r="DK34" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL34" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM34" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN34" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO34" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT34" s="14"/>
+      <c r="DU34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV34" s="14"/>
+      <c r="DW34" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="DX34" s="14"/>
+      <c r="DY34" s="14"/>
+      <c r="DZ34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA34" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB34" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC34" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED34" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE34" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF34" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG34" s="14"/>
+      <c r="EH34" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI34" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ34" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP34" s="14"/>
+      <c r="EQ34" s="14"/>
+      <c r="ER34" s="14"/>
+      <c r="ES34" s="14"/>
+      <c r="ET34" s="14"/>
+      <c r="EU34" s="14"/>
+      <c r="EV34" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW34" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX34" s="14"/>
+      <c r="EY34" s="14"/>
+      <c r="EZ34" s="14"/>
+      <c r="FA34" s="14"/>
+      <c r="FB34" s="14"/>
+      <c r="FC34" s="14"/>
+      <c r="FD34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE34" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF34" s="14"/>
+    </row>
+    <row r="35" spans="1:162" s="13" customFormat="1">
+      <c r="A35" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="0"/>
+        <v>2042477062</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="16">
+        <v>40269</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>40633</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE35" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF35" s="16">
+        <v>40634</v>
+      </c>
+      <c r="AG35" s="15">
+        <v>102453496808</v>
+      </c>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM35" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN35" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX35" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY35" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ35" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA35" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB35" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC35" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE35" s="14"/>
+      <c r="BF35" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG35" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH35" s="14"/>
+      <c r="BI35" s="14"/>
+      <c r="BJ35" s="14"/>
+      <c r="BK35" s="14"/>
+      <c r="BL35" s="14"/>
+      <c r="BM35" s="14"/>
+      <c r="BN35" s="14"/>
+      <c r="BO35" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP35" s="14"/>
+      <c r="BQ35" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR35" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS35" s="16"/>
+      <c r="BT35" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU35" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV35" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW35" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX35" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY35" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ35" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA35" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB35" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC35" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE35" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI35" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ35" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL35" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO35" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP35" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ35" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR35" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS35" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT35" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU35" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV35" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW35" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX35" s="14"/>
+      <c r="CY35" s="14"/>
+      <c r="CZ35" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA35" s="15"/>
+      <c r="DB35" s="15"/>
+      <c r="DC35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD35" s="16">
+        <v>40634</v>
+      </c>
+      <c r="DE35" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF35" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG35" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH35" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI35" s="15"/>
+      <c r="DJ35" s="15"/>
+      <c r="DK35" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL35" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM35" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN35" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT35" s="14"/>
+      <c r="DU35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV35" s="14"/>
+      <c r="DW35" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="DX35" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="DY35" s="14"/>
+      <c r="DZ35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA35" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB35" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC35" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED35" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE35" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF35" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG35" s="14"/>
+      <c r="EH35" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI35" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP35" s="14"/>
+      <c r="EQ35" s="14"/>
+      <c r="ER35" s="14"/>
+      <c r="ES35" s="14"/>
+      <c r="ET35" s="14"/>
+      <c r="EU35" s="14"/>
+      <c r="EV35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW35" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX35" s="14"/>
+      <c r="EY35" s="14"/>
+      <c r="EZ35" s="14"/>
+      <c r="FA35" s="14"/>
+      <c r="FB35" s="14"/>
+      <c r="FC35" s="14"/>
+      <c r="FD35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE35" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF35" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
